--- a/Dashboards/Excel/McDonald's/START-Dashboard.xlsx
+++ b/Dashboards/Excel/McDonald's/START-Dashboard.xlsx
@@ -5,23 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemantdayma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemantdayma/Documents/main/Dashboards/Excel/McDonald's/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDC214D-2A04-5944-8207-5B8C4EECD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC057F51-88F0-BB47-A283-5B23D78891C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="1" xr2:uid="{810B916D-8AC5-B94F-AAD8-02E834047D22}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{810B916D-8AC5-B94F-AAD8-02E834047D22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
-    <sheet name="Inputs" sheetId="3" r:id="rId3"/>
-    <sheet name="Contacts" sheetId="4" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Inputs!$J$13:$J$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Inputs!$K$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Inputs!$K$13:$K$17</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">Inputs!$G$12</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">Inputs!$G$13:$G$19</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Inputs!$H$12</definedName>
@@ -48,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Country</t>
   </si>
@@ -214,62 +210,6 @@
   <si>
     <t>Sales</t>
   </si>
-  <si>
-    <r>
-      <t>Get 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> our course using coupon code </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EMAIL10</t>
-    </r>
-  </si>
-  <si>
-    <t>Made by Kenji Explains / Career Principles</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>All content is copyright material of Kenji Explains / Career Principles</t>
-  </si>
-  <si>
-    <t>This Excel model may not be reproduced or distributed by any means, including printing, 
-screencapturing, or any other method without the prior permission of the publisher.</t>
-  </si>
-  <si>
-    <t>Explore Our Online Courses</t>
-  </si>
-  <si>
-    <t>Dashboard Start File</t>
-  </si>
 </sst>
 </file>
 
@@ -281,7 +221,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,64 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="42"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="50"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF0432FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,20 +302,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -447,101 +320,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -550,9 +328,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,46 +356,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -20932,50 +20671,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2434775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3050985" cy="865353"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2F5ACC-1BFF-4DDE-9C8C-9C2DC782555F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3717475" y="1428751"/>
-          <a:ext cx="3050985" cy="865353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -21885,15 +21580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
+      <xdr:colOff>623456</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>392545</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:colOff>334819</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>323273</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -21929,8 +21624,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12088091" y="692727"/>
-              <a:ext cx="3267363" cy="6684818"/>
+              <a:off x="12261274" y="692726"/>
+              <a:ext cx="3036454" cy="6661729"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22101,6 +21796,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t> $2,544 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="2800" b="1">
@@ -22394,7 +22090,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22491,7 +22187,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22550,7 +22246,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22647,7 +22343,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -22916,7 +22612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -23481,139 +23177,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700B5BE-F9C7-4356-9025-1B7D72670BFA}">
-  <dimension ref="B4:D19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="16"/>
-    <col min="2" max="2" width="7.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="96.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.5" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="2:4" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="2:4" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="2:4" s="29" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Txj7ApRZIr10m+Yi7nx51zVkoQ2mXiBMZed447p0YO+5GGAbFNKHj7sgsfcMfmsLRhX4i/w7gz1/FyMoSzpRew==" saltValue="C0sTpBsgE1pCj59JOSCkzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{E9941450-CF8D-4081-B844-71737E242613}"/>
-    <hyperlink ref="C15" r:id="rId2" display="Made by Kenji Explains" xr:uid="{25579E7F-6AFB-4215-B61A-20A079B00989}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D62819-44D1-EE4C-940E-0D3D0CCB2ED3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData/>
@@ -23622,17 +23195,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC16DE6-AF43-5D41-92D8-941949992132}">
   <dimension ref="A2:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
@@ -24007,24 +23580,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604A435B-AFC0-4775-ADA4-3BA01B02C73F}">
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="13"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
